--- a/group-reports/tables/sharif-results-after-queue-test-1.xlsx
+++ b/group-reports/tables/sharif-results-after-queue-test-1.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>20260</t>
+          <t>20260 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>82.64</t>
+          <t>82.64 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>688 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>83.09 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>681 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>82.36</t>
+          <t>82.36 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1144 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>83.78 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>708 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>82.64</t>
+          <t>82.64 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>998</t>
+          <t>998 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>82.35 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>654 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>82.24 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1351 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>83.70</t>
+          <t>83.70 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1003 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>84.06</t>
+          <t>84.06 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>719 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>83.10</t>
+          <t>83.10 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>999 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>82.12 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>711 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>81.88</t>
+          <t>81.88 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
